--- a/参考资料/前端总结/javaScriptAPI.xlsx
+++ b/参考资料/前端总结/javaScriptAPI.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCodeFlie\MyFile\参考资料\前端总结\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA57BD95-ABF6-4509-AD06-981CF7AB3DBE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="10020" windowHeight="8970" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>win7</author>
   </authors>
   <commentList>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="188">
   <si>
     <t>数量</t>
   </si>
@@ -1358,66 +1362,12 @@
     <t>var num=Math.floor(Math.random()*(10-0+1)+0);
 console.log(num);//取随机整数</t>
   </si>
-  <si>
-    <t>周五招聘会</t>
-  </si>
-  <si>
-    <t>刘仁芳</t>
-  </si>
-  <si>
-    <t>K7903</t>
-  </si>
-  <si>
-    <t>15人</t>
-  </si>
-  <si>
-    <t>K7901</t>
-  </si>
-  <si>
-    <t>35人</t>
-  </si>
-  <si>
-    <t>郭小波</t>
-  </si>
-  <si>
-    <t>S7902</t>
-  </si>
-  <si>
-    <t>20人</t>
-  </si>
-  <si>
-    <t>张焕英</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>23人</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>29人</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>157人</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,158 +1399,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,7 +1419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,198 +1431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1857,263 +1481,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2142,6 +1518,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2151,68 +1533,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2504,452 +1851,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="47.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="40" customHeight="1" spans="1:6">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:6">
-      <c r="A3" s="8">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:6">
-      <c r="A4" s="8">
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="36" customHeight="1" spans="1:6">
-      <c r="A5" s="8">
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:6">
-      <c r="A6" s="8">
+    <row r="6" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="43" customHeight="1" spans="1:6">
-      <c r="A7" s="8">
+    <row r="7" spans="1:7" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="54" customHeight="1" spans="1:6">
-      <c r="A8" s="8">
+    <row r="8" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:6">
-      <c r="A9" s="8">
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="40" customHeight="1" spans="1:6">
-      <c r="A10" s="8">
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="51" customHeight="1" spans="1:6">
-      <c r="A12" s="8">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="86" customHeight="1" spans="1:6">
-      <c r="A13" s="8">
+    <row r="13" spans="1:7" ht="86.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="66" customHeight="1" spans="1:7">
-      <c r="A14" s="8">
+    <row r="14" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="110" customHeight="1" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="1:7" ht="110.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" ht="101" customHeight="1" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" ht="90" customHeight="1" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" ht="102" customHeight="1" spans="1:6">
-      <c r="A18" s="8">
+    <row r="18" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" ht="68" customHeight="1" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:7" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" ht="100" customHeight="1" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" ht="49" customHeight="1" spans="1:7">
-      <c r="A21" s="8">
+    <row r="21" spans="1:7" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
         <v>14</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" ht="66" customHeight="1" spans="1:6">
-      <c r="A22" s="8">
+    <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
         <v>15</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" ht="25" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>87</v>
       </c>
@@ -2958,559 +2304,561 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" ht="84" customHeight="1" spans="1:6">
-      <c r="A24" s="8">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
         <v>16</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" ht="66" spans="1:6">
-      <c r="A25" s="8">
+    <row r="25" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
         <v>17</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" ht="57" customHeight="1" spans="1:7">
-      <c r="A26" s="8">
+    <row r="26" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>18</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" ht="50" customHeight="1" spans="1:7">
-      <c r="A27" s="8">
+    <row r="27" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
         <v>19</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" ht="33" customHeight="1" spans="1:6">
-      <c r="A28" s="8">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
         <v>20</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" ht="41" customHeight="1" spans="1:6">
-      <c r="A29" s="8">
+    <row r="29" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
         <v>21</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" ht="50" customHeight="1" spans="1:6">
-      <c r="A30" s="8">
+    <row r="30" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" ht="33" spans="1:6">
-      <c r="A31" s="8">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
         <v>23</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" ht="33" spans="1:6">
-      <c r="A32" s="8">
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
         <v>24</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" ht="101" customHeight="1" spans="1:7">
-      <c r="A33" s="8">
+    <row r="33" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
         <v>25</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" ht="181.5" spans="1:7">
-      <c r="A34" s="8">
+    <row r="34" spans="1:7" ht="181.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
         <v>26</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" ht="279" customHeight="1" spans="1:7">
-      <c r="A35" s="8">
+    <row r="35" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
         <v>27</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" ht="82.5" spans="1:7">
-      <c r="A36" s="8">
+    <row r="36" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
         <v>28</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" ht="330" spans="1:7">
-      <c r="A37" s="8">
+    <row r="37" spans="1:7" ht="330" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
         <v>29</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" s="5" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A38" s="7" t="s">
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" ht="165" spans="1:7">
-      <c r="A39" s="8">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="165" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
         <v>30</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" ht="115.5" spans="1:7">
-      <c r="A40" s="8">
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
         <v>31</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" s="5" customFormat="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A41" s="7" t="s">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41"/>
     </row>
-    <row r="42" ht="49.5" spans="1:7">
-      <c r="A42" s="8">
+    <row r="42" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
         <v>32</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" ht="49.5" spans="1:7">
-      <c r="A43" s="8">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
         <v>33</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" ht="66" spans="1:7">
-      <c r="A44" s="8">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
         <v>34</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" ht="33" spans="1:7">
-      <c r="A45" s="8">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
         <v>35</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" ht="33" spans="1:7">
-      <c r="A46" s="8">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
         <v>36</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" ht="33" spans="1:7">
-      <c r="A47" s="8">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
         <v>37</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" ht="16.5" spans="1:7">
-      <c r="A48" s="8">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
         <v>38</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" ht="16.5" spans="1:7">
-      <c r="A49" s="8">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
         <v>39</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" ht="33" spans="1:7">
-      <c r="A50" s="8">
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
         <v>40</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A41:F41"/>
@@ -3518,135 +2866,10 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G26:G27"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="2">
-        <v>6907</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>6908</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C4:C5"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>